--- a/Analytics/OTHERLEAGUES/CrossBookings_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/CrossBookings_ol.xlsx
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>256300.0</v>
+        <v>90125.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>182200.0</v>
+        <v>81625.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>146450.0</v>
+        <v>50100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/OTHERLEAGUES/CrossBookings_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/CrossBookings_ol.xlsx
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>90125.0</v>
+        <v>94525.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>81625.0</v>
+        <v>86825.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>50100.0</v>
+        <v>72700.0</v>
       </c>
     </row>
   </sheetData>
